--- a/_Recursos/Arquivos-Aula6/CADASTRO DE CLIENTES.xlsx
+++ b/_Recursos/Arquivos-Aula6/CADASTRO DE CLIENTES.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Victorino Vila\770-etl-sql-server\Videos\770-etlsqlserver-video4.2-Extrando a cidade e o estado do endereço\Anexos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.gomes\source\repos\DatawarehouseSucos\_Recursos\Arquivos-Aula6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA8716D-B1C9-4EC1-8DA1-C610CBBDFF34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +57,6 @@
     <t>Supermercados</t>
   </si>
   <si>
-    <t>Rainha Supermercados Salvador - BH</t>
-  </si>
-  <si>
     <t>Rede Drogas Brasil Goiais - GO</t>
   </si>
   <si>
@@ -104,9 +102,6 @@
     <t>Rede Posto Mania Goiais - GO</t>
   </si>
   <si>
-    <t>Rede Posto Mania Salvador - BH</t>
-  </si>
-  <si>
     <t>Super Mania Porto Alegre - RS</t>
   </si>
   <si>
@@ -233,9 +228,6 @@
     <t>R. Cinqüenta, 20  - Belo Horizonte - MG</t>
   </si>
   <si>
-    <t>R. Haddock Lobo, 17 - Salvador - BH</t>
-  </si>
-  <si>
     <t>Av. Dom Hélder Câmara, 3124 - Goiais - GO</t>
   </si>
   <si>
@@ -386,9 +378,6 @@
     <t>Av. Min. Afrânio Costa, 202 - Campo Grande - MS</t>
   </si>
   <si>
-    <t>R. Manguaba, 21  - Salvador - BH</t>
-  </si>
-  <si>
     <t>Av. Pres. Vargas, 290 - Porto Alegre - RS</t>
   </si>
   <si>
@@ -423,6 +412,18 @@
   </si>
   <si>
     <t>R. Cel. Laurênio Lago, 355 - Campinas - SP</t>
+  </si>
+  <si>
+    <t>Rainha Supermercados Salvador - BA</t>
+  </si>
+  <si>
+    <t>R. Haddock Lobo, 17 - Salvador - BA</t>
+  </si>
+  <si>
+    <t>Rede Posto Mania Salvador - BA</t>
+  </si>
+  <si>
+    <t>R. Manguaba, 21  - Salvador - BA</t>
   </si>
 </sst>
 </file>
@@ -777,7 +778,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,19 +792,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -817,13 +818,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -837,13 +838,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -857,13 +858,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -877,13 +878,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -897,13 +898,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -917,13 +918,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -934,16 +935,16 @@
         <v>9824868712</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -954,19 +955,19 @@
         <v>2078365742</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,19 +975,19 @@
         <v>9594349760</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,19 +995,19 @@
         <v>91988802768</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,16 +1015,16 @@
         <v>2379494746</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -1034,16 +1035,16 @@
         <v>2373471728</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -1054,16 +1055,16 @@
         <v>82236119704</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -1074,19 +1075,19 @@
         <v>43390129715</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,19 +1095,19 @@
         <v>29863333700</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1114,19 +1115,19 @@
         <v>7053899799</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1134,19 +1135,19 @@
         <v>46619968791</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1154,19 +1155,19 @@
         <v>2930317701</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1174,19 +1175,19 @@
         <v>76815463753</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1194,19 +1195,19 @@
         <v>31292046791</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D21">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1214,19 +1215,19 @@
         <v>6964705783</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,16 +1235,16 @@
         <v>72629274772</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D23">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
@@ -1254,16 +1255,16 @@
         <v>12805717724</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D24">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1274,19 +1275,19 @@
         <v>77842952787</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,19 +1295,19 @@
         <v>80683215787</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1314,16 +1315,16 @@
         <v>64113060797</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
@@ -1334,19 +1335,19 @@
         <v>8664533776</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,19 +1355,19 @@
         <v>77126718772</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1374,19 +1375,19 @@
         <v>5194978723</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,16 +1395,16 @@
         <v>64009319372</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
@@ -1414,16 +1415,16 @@
         <v>82393222715</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
@@ -1434,16 +1435,16 @@
         <v>887713777</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1454,19 +1455,19 @@
         <v>13332132717</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,19 +1475,19 @@
         <v>49609165753</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D35">
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1494,19 +1495,19 @@
         <v>10760990760</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,19 +1515,19 @@
         <v>10493761705</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1534,19 +1535,19 @@
         <v>75445719715</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1554,19 +1555,19 @@
         <v>11504339738</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,19 +1575,19 @@
         <v>38496275787</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1594,19 +1595,19 @@
         <v>90830636749</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41">
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,16 +1615,16 @@
         <v>3760238300</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1634,19 +1635,19 @@
         <v>5427963766</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D43">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,16 +1655,16 @@
         <v>47268018720</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D44">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
@@ -1674,19 +1675,19 @@
         <v>7150192793</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D45">
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1694,19 +1695,19 @@
         <v>87549999791</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,19 +1715,19 @@
         <v>99010968715</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D47">
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1734,16 +1735,16 @@
         <v>25198076600</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D48">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
@@ -1754,19 +1755,19 @@
         <v>78623359704</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D49">
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1774,16 +1775,16 @@
         <v>7129236752</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
@@ -1794,19 +1795,19 @@
         <v>44646550768</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1814,16 +1815,16 @@
         <v>90005511704</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1834,19 +1835,19 @@
         <v>84490438753</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,19 +1855,19 @@
         <v>46118837449</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D54">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1874,19 +1875,19 @@
         <v>7317856738</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D55">
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,16 +1895,16 @@
         <v>30780411749</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D56">
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
@@ -1914,16 +1915,16 @@
         <v>81034342720</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
@@ -1934,16 +1935,16 @@
         <v>66631300720</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D58">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
